--- a/Spring34MVC01/output.xlsx
+++ b/Spring34MVC01/output.xlsx
@@ -63,8 +63,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>942975</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -84,7 +84,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="942975" cy="1209675"/>
+          <a:ext cx="533400" cy="190500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -104,10 +104,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="74.25" customWidth="true"/>
+    <col min="1" max="1" width="12.375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" ht="95.25" customHeight="true"/>
+    <row r="1" ht="95.0" customHeight="true"/>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
